--- a/SampleSheet.xlsx
+++ b/SampleSheet.xlsx
@@ -14,15 +14,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ReportsLocation" sheetId="3" r:id="rId2"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="AmazonTestData" sheetId="8" r:id="rId3"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId4"/>
+    <sheet name="EriBank_Android" sheetId="6" r:id="rId5"/>
+    <sheet name="DesktopApp" sheetId="5" r:id="rId6"/>
+    <sheet name="EriBank_IOS" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>UserName</t>
   </si>
@@ -109,13 +112,97 @@
   </si>
   <si>
     <t>C:\Users\AjayBezawada\Documents\UiPath\TxHyper_NewLibraryTestProject1\Reports\RPA_Test</t>
+  </si>
+  <si>
+    <t>Android_TestData</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Rivere</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>BookName</t>
+  </si>
+  <si>
+    <t>testingtx2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
+  </si>
+  <si>
+    <t>the alchemist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -139,6 +226,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +290,11 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,9 +625,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="13">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -633,12 +786,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="13">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -695,4 +941,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="13">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>